--- a/follower_network.xlsx
+++ b/follower_network.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="242">
   <si>
     <t>screen_name</t>
   </si>
@@ -379,6 +379,30 @@
     <t>PplFuture</t>
   </si>
   <si>
+    <t>ruyishijie</t>
+  </si>
+  <si>
+    <t>TorontoFarmENFR</t>
+  </si>
+  <si>
+    <t>OpinionsMiOwn</t>
+  </si>
+  <si>
+    <t>PushkarajRasal</t>
+  </si>
+  <si>
+    <t>qRi03wQogWKyXCV</t>
+  </si>
+  <si>
+    <t>devnull30921331</t>
+  </si>
+  <si>
+    <t>Notyomoma1</t>
+  </si>
+  <si>
+    <t>SnowdogChampion</t>
+  </si>
+  <si>
     <t>['PaingPhyoeThu9', 'HKMerryGoRound', 'NBCNews', 'ZunKhaingOo2', 'G1234567787', 'Seaotte30604563', 'KiaraKun13', 'MayWongCNA', 'UyghurCongress', 'globalfreemedia', 'CNBCi', 'laladream21', 'NannIngyinSan', 'shaun_trevena', 'FinancialReview', 'fatandbighk', 'ChristyTKLam', 'DaubMomo', 'fkmylife524', 'felixleo21', 'Htut82', 'WongDesmond3', 'peaccccccccccch', 'UnmatchM', 'Chiyuwong', 'pyaephyophyo4', 'nyiminsan', 'MaintainWave', 'aorwiki', 'mikkohtun', 'LqhrMgqoAuQ0VME', 'tjdkwkd', 'KweeKya81250294', 'GotPassport', 'waizinoomariner', 'H_K_Yan', 'IMCaHjIfVgRo3vn', 'm2khine', 'otischan2046', 'NicoJohnson00', 'Charlot26171384', 'peachychuey', '721missing', 'BluePri85189365', 'AyeMyaNay1', 'RSF_en', 'JMichaelWaller', '9NewsAUS', 'worryabout2047', 'mayankmanu466', 'NangSeinAung2', 'professormyo', 'ykniarr', 'Voaburmese', 'CMyittar', 'Nicole__1022', 'poppyL1991', 'MHLAPEX', 'PhyuPhyu_Han', 'CTVVancouver', 'hkghomekong', 'KhinThidaTun7', 'Doasmuchaswecan', 'ZarZarTin2', 'B__Vishwakarma', 'Vvn_Viva', 'whk8964', 'takemori888', 'ZawMyet1', 'Journal_INDOPAC', 'LaiChi32153792', 'mahninpwint', 'RL2359', 'keren_khin', 'Youthsarechange', 'elliotkwl', 'jackpepesad', 'Roberto69323138', 'Belle_KSMA', 'balbirpunj', 'MonLatt4', 'EishwesinMM', 'onmywayoutfire', 'RepRussFulcher', 'AubreyHongKong', 'Krim71004035', 'TostevinM', 'QooQoo03769397', 'finnlau_cd', 'BDhondup', 'PACBurmaRights', 'Daily_Express', 'Poe75760819', 'shibuyazarny', 'show_awarenes', 'SenatorHagerty', 'eaindrakz', 'laiwahnaing', 'LizAnnSonders', 'ForeignAffairs', 'TsuiJacky1', 'AndyWilliamJose', 'Ye64827580', 'NineMyanmar', 'missgreenlady', 'SimonintheZoo', 'lsflsfmax', 'Hellland2', 'HongKon50387452', 'Fuck_you_HKpopo', 'shenzhilong001', 'FrontierMM', 'Phyuphy04095563', 'li44884272', 'RyanGrieveAB', 'AkiraIgata', 'JershCarroll', 'SAdamsR2P', 'Ton64059582', 'NORA27302878', 'James08049776', 'NanAung28710051', 'YadaNa21216121', 'LayPhyuOfficial', 'mabid12068642', 'Sam00070683', 'Sunilbaghar3', 'souravmutika', 'MMSpring22', 'Rresponsum', 'AeySahat', 'hkunhtoi', 'mewmew321', 'hohoho3_3', 'abbas_nighat', 'Myanmar_Now_Eng', 'HinduNayan', 'chezfifi', 'KMon38543994', 'democracy4mm', 'Eizar64223377', 'yd_tweets', 'Shoon_Naing', 'DanielFreeHK51', 'malaymail', 'cvdom2021', 'DrSasa22222', 'ivana71582994', 'Evachow211', 'thesundaytimes', 'bopinion', 'AllenCarlos9', 'mongkongexpress', 'esenapaj_japan2', 'patk58', 'CSIS', 'poppymcp', 'Abdulla30424503', 'sateer55', 'AungAye87397486', 'Lefty71993368', 'KhinTha11136732', 'MilkTea_Iran', 'Ivory74599356', 'VannieNeumann', 'chooseinstead', 'L96lnEQ3oCymwYf', 'ShioriYamao', 'KennethMarok', 'Sheshe76223202', 'HKer_Fighting__', 'zaw_athens', 'SafeguardDefend', 'sunnig66', 'AlexMyanmar13', 'crowwrites', 'RepLisaMcClain', 'twittyrebel', 'JusticeMyanmar', 'shafiur', 'haruharuka000', 'chocomilk_123', 'JasonHo92944843', 'shwechipaing', 'redpatchkid', 'Casp3rLiu', 'Yuriwg', 'chunggungg', 'HeinNai12467853', 'ppkx26', 'HtooEmma', 'mihtayhtayoo', '4tDOkDjzvxWQlj3', 'phyo_86', 'phyo31521506', 'mattwridley', 'TPostMillennial', 'AungZaw97144787', 'andy_is_missing', 'BociagaRobert', 'aokaomian', 'AutoProtestDoll', 'fishfreedomball', 'maddy3793', 'ZweYanLynn1', 'HKBakcardlo', 'AungKyawDway2', 'AnnLWagner', 'cape_diamond', 'HRPressAwards', '51HongKonger51', 'ThetHtarOo1902', 'save12hkyouths', 'Zoe97315482', 'YuyaXan', 'teateatea555', 'Standwi64724650', 'DivyaaThala', 'maytoekhine', 'nslwin', 'GalarritaPaolo', 'NRO', 'HKer81152793', 'VicVVVVVVV', 'swbrooman', 'RadioFreeAsia', 'SheldonStone19', 'KyiKyiK36428334', 'Jesper04568981', 'yeshe_paljor', 'Amanda09115477', 'Milktea_Myanmar', 'AiriKijima2', '520chyanko', 'Anshika61680783', 'kyawkhant06', 'ChickenFired', 'wuchungmartin', 'RyanLam46857468', 'Alexandratf1re', 'JhormZai', 'AnneDestiny1', 'asthana_shashi', 'DrLiMengYAN1', 'TracyCH4', '_andychung', 'lausugarlive', 'phyomaw4', 'Kim_injeongkim', 'PranitPN3', 'phochan81', 'DeiwiLwin', 'HsuyadanarW', 'jugalki70865073', 'mk_flamev2', 'ei2phyu', 'Yololo38055003', 'heungburma', 'BanBan55423593', 'SArmstrong1209', 'syc87865041', 'YukKelvin', 'ManChak20', 'tachibanahk', 'THETHTO29568623', 'cardinal_bo', 'NarendraJERTHI', 'CarlosHui1', 'YSINational', 'zazumi_A2', 'Ray_WongHKI', 'imajaysuresh', 'NewsPamphlet', 'minjunchen2', 'CCP_Watch', 'ThetHte07404397', 'freetibetorg', 'Patrick81230595', 'jeffreychngo', 'wendy_cheshier', 'deshbhkat_yodha', 'HippBilly', 'Obakekaijyu']</t>
   </si>
   <si>
@@ -695,6 +719,27 @@
   </si>
   <si>
     <t>['MinOfCultureGoI', 'HMOIndia', 'Live_Hindustan', 'IQAir', 'airnewsalerts', 'NewsNationTV', 'CNNnews18', 'RahulGandhi', 'thewire_in', 'MoHFW_INDIA', 'JagranNews', 'News18India', '_andychung', 'spectatorindex', 'swbrooman', 'DDNational', 'DDNewsHindi', 'DD_Bharati', 'AIRNewsHindi', 'MeghUpdates', 'tourismgoi', 'PoliticalKida']</t>
+  </si>
+  <si>
+    <t>['mulan20200604', 'CTVMontreal', 'financialpost', 'AndrewScheer', 'mikepompeo', 'globeandmail', 'BowenXiao_', 'LP_LaPresse', 'zhiyitw33', 'Jkylebass', 'MosHimalaya_CN', 'CWOFame', 'EricTopol', 'caijingxiang', 'CTVToronto', 'cathponeill', 'nowtoronto', 'SharriMarkson', 'MariaRyanNH', 'clairlemon', '630CHED', 'guardiannews', 'Transport_gc', 'aliah0031', 'CBCBusiness', 'SecBlinken', 'CBC', 'realKunalAShah', 'IanEverhart', 'TheAgenda', 'wang_maya', 'StatCan_eng', 'XkS5TmstaEZYrAS', 'ChickenGate', 'JustinTrudeau', 'CBCNews', 'HimalayaMayflo1', 'cnnbrk', 'AirCanada', 'TrueNorthCentre', 'CyrusAParsa1', 'cbcasithappens', 'nataliegwinters', 'unihh', 'JanJekielek', 'WECDSB', 'wolveri78401870', 'PwCUS', '2mmbPkM00IJwIUV', 'CP24', 'NATO', 'LawrenceSellin', 'OANN', 'lukedepulford', 'RX_forLiberty', 'NEWS1130', 'TheWindsorStar', 'CNN', 'Spin_Assassin', 'quay_dr', 'CTVNews', 'thestaredmonton', 'JackPosobiec', 'GordonGChang', 'gaoyu200812', 'CityWindsorON', 'CTVAtlantic', 'Lukewearechange', 'HuffPostQuebec', 'BillGertz', 'JeanRob54950229', 'CBCAlerts', 'standforhealth1', 'CanadaFP', 'AndrewLawton', 'NEWS1130Traffic', 'Guan_PhD', 'RolandBakerIII', 'HuffPostCanada', 'epochtimesau', 'iheartedmonton', 'cyblesoleil', 'kayleighmcenany', 'robert_spalding', 'JoeBiden', 'TheTorontoSun', 'TwitCoast', 'drcraigwax', 'DrTomFrieden', 'G_Translators6', 'OliverLNorth', 'CityNews', 'CBCNS', 'baobaoxiaoliao', 'cdnbiz', 'Cantoneseteam', 'NBCNews', 'drsimonegold', 'SenTomCotton', 'joe_warmington', 'WHO', 'StevenWMosher', 'monsanto2000', 'JdeQuebec', 'lopezobrador_', 'naomirwolf', 'NatureCanada', 'CBCToronto', 'DriveBC', 'Transports_gc', 'lude_media', 'RaheemKassam', 'newsmax', 'CandiceBergenMP', 'tedcruz', 'canadabusiness', 'DrJacobsRad', 'JasonMillerinDC', 'edendomain', 'CandiceMalcolm', 'HawleyMO', 'JdeMontreal', 'Justin_Ling', 'marty_morantz', 'fordnation', 'TheLancet', 'Cooper4SAE', 'lazydjay', 'erinotoole', 'AP', 'MilesToGo_MMT', 'WBrettWilson', 'cbcnewsbc', 'NikkeiAsia', 'news_ntd', 'Breaking911', '880Edmonton', 'bikhim', 'DonaldJTrumpJr', 'blogTO', 'globalnews', 'BoDiplo', 'MarshaBlackburn', 'GlobalBC', 'KamalaHarris', 'nationalpost', 'TIME', 'EpochTimes', 'MarcGarneau', 'AmThoughtLeader', 'CBCPolitics', 'macleans', 'WeAreCanProud', 'RealLiAngNaDuo', 'fpinvesting', 'TPostMillennial', 'tleehumphrey', 'Covid19Critical', 'MichelleRempel', 'maryann_3040', 'CKNW', 'RebelNewsOnline', 'Lactualite', 'RealPNavarro', 'CoronavirusLiv7', 'MariaBartiromo', 'ezralevant', 'RichNChrist57', 'PierrePoilievre', 'BBCWorld', 'FoxNews', 'ipacglobal', 'SpencerFernando', 'CBCTheNational', 'GlobalNational', 'QuShuitai', 'NatObserver', 'MarieBeausacq', 'dockaurG', 'StephenMcNeil', 'WM18320321', 'IvankaTrump', 'RudyGiuliani', 'starvancouver', 'MarcDalton', 'globalnewsto', 'milesyu10', 'sf_himalaya', 'TorontoFarmCN', 'TheRealKeean', 'capebretonpost', 'nypost', 'brianlilley', 'dajiyuan', 'YourAlberta', 'aubrey_huff', '680NEWS', 'USA_China_Talk', 'dezying', 'Chaleck', 'BoLu213', 'No3Mos', 'USATODAY', 'NEWS957', 'CTVWindsor', '4RxMbPD3YbeN1fS', 'guardian', 'MOFA_Taiwan', 'Tuan_anti3316', 'CTVNationalNews', 'Byron_Wan', 'VancouverSun', 'MosHimalaya', 'PnPCBC', 'zerohedge', 'TorontoStar', 'benedictrogers', 'himalayaangel', 'SenFeinstein', 'CTVVancouver', 'SCVA1997', 'LouDobbs', 'AM800News', 'TuckerCarlson', 'Guan_PhDnew', 'jordanbpeterson', 'anthonyfurey', 'HarshaNair27', 'MichaelChongMP', 'andy5_123', 'CBCVancouver', 'NikolovScience', 'cityofkelowna', 'DrLiMengYAN1', 'FinanceCanada', 'coinbase', 'GOPLeader', 'StateDept', 'hailangwolf1', 'CanadaDotCom', 'torontodotcom', 'richardursomd', 'canadapostcorp', 'GarnettGenuis', 'JasonZanatta', 'abcnews', 'LauraLynnTT', 'Peterinexile', 'NTDChinese', 'CCP_China_Watch', 'XMUZI_2', 'TheMenzoid', 'robmorrisonmp', 'CanAditude']</t>
+  </si>
+  <si>
+    <t>['bliler_tricia', 'OpulentAura', 'henrikbitcoin', 'resistancecco', 'erdocAA', 'AnimeBibleVerse', 'RussellHillier', 'Jeff54356594', 'LauraKrauseNews', 'ClimateMalware', 'AliReza55211130', 'LauraLynnTT', 'nonadiana32', 'Nvania', 'RealCanuckNews', 'SpencerFernando', 'freerepublic76', 'DeniseInCanada', 'mynamesnotgordy', 'freedomfieder', 'CoachTanyaMarie', 'BethPapaleo', 'kcoccia811', 'CanadaGuy64', 'mel9161', 'EllDevon', 'SaraBatten3', 'tatefitness', 'ClaireH37444648', 'GeraldGgallant', 'veroniquepoir12', 'fatchancemate', 'NML_Canada', 'BeverlyTymchuk', 'thelinecanada', 'fanHoneyWest', 'katieappleseed7', 'blagarde5', 'OrmoMom', 'rem_pete', 'Sophiecbrr', 'Endlockdowns1', 'Elliottgator', 'DonnaEmbretson', 'Islands49th', 'CoulombeMax', 'RecommS', 'ninib58', 'Usonofa', 'eddy_888', 'okeedokes', 'FromLandOfIce', 'truthp0st', 'deft18', 'rollinthund3r', 'Alice8Unchained', 'weronski', 'TRUTHWA31372592', 'ToddQSmith1', 'DpetrolheadJ', 'dhaaland', 'Julie76983198', 'Dudefromontario', '_I_Am_Canadian', 'A_Wonderful_Lif', 'DarthMods', 'xwal71', 'DamoPelham3', 'maryanne_walden', 'E_Bernardina', 'dannyboy0905', 'SarahJaneguru', 'zero_to_here_oh', 'plcjoanne', 'Bocmee', '1greatstory', 'Debbie96855858', 'IntheMatrix602', 'ConspiracyFac11', 'jeff_stell', 'DurhamKennedy', 'HarryBerbely', 'M17Lamuneca', 'PfreedomRi', 'REALAWAKEERIC', 'Rob_McConnach', 'CorinneMissler', 'curtis_serben', '911_please_hold', 'wendyleonjuda', 'thejoezaza', 'pdf00587301', 'carolinasassie', 'Disciple07Rock7', 'jacktherabbit11', 'WorldofNC', 'ABBlueSkies', 'namor012', 'Sara76790572', 'severn_queen', 'darthburty', 'kittybluntz', 'NotAnAndroidv2', 'reallygraceful', 'smokeymccheefo', 'Ali_Eden66', 'GovGone', 'Kubilay2021', 'Hector72380636', 'Iamanob76241101', 'dshrig', 'Catmasterjason', 'realyourhedge', 'NickyP47301131', 'Jenniferbigtits', 'RichardBudzic', 'DJTravelAbacus', 'RTTP21', 'agueros_henry', 'JCanuckistan', 'PaolaQP1231', 'ScrewballBeurl1', 'FahadAz63501106', 'lesmer13', 'SeanlMitchell', 'chadlattanzio', 'pearlharbor2020', 'StevenT65674368', 'PLUGZY87', 'Profik1977', 'NunyaBiznez101', 'k3enteprises', 'DonnaReiter6', 'InsaneinyerBane', 'birdgirlc', 'CandyNimrod', 'MielkeMonique', 'deepthink5', 'desireenieves85', 'Kim__VanRooyen', 'SaskLass', 'SCOTUSblog', 'Thetrueconserv3', 'ChristineScalez', '747_s', 'Comoncentscourt', 'TMCheck_', 'Jhutch43945987', 'Canadalost99', 'lootlogic', 'LifeChanger76', 'paton_adam', 'Psyop2020', 'shazdeven', 'templaroftruth', 'guids144', 'PPCStCatharines', 'margay77', 'pierrelemoine88', 'FREEDOMTV123', 'Sonic111965449', 'Gym2Lift', 'ireneMW008', 'BuckUnkel', 'artillery2020', 'ChiolaAlice', 'KateIswell', 'Stan2415loveu', 'greg_scott84', 'juliewhizbit', 'ian_tuf', 'RevSRichardson', 'callmenames040', 'BlushingBelles', 'OldSalz', 'LibraLaw11', 'Hale2Anne', 'coyotedirty', 'grammadeb196', 'malabar56', 'Angie39857454', 'ChessWizardry', 'BlondiesPup', 'degrde', 'CANFREEADVOCATE', 'DerekDonahue7', 'Kyphotoguy', 'for_options', 'DodgeRambl3r', 'yostanty', 'cvangeyn', 'KevRolfe', 'denisdriver3', 'Markrizla1', 'Neil15656207', 'bellamomma444', 'MainPerth', 'BDowsling', 'Humanspecies101', 'Beaudreaux4', 'Alleninvest', 'NaughtyBadGoy', 'NewModelArmy5', 'daemalinowski', 'LauraFegan5', 'DavidAnber', 'Domenic_Toronto', 'ArseeLayer', 'dontH8intubate', 'biddy_bold', 'hoath_mark', 'rightofeast', 'GwendolineSper1', 'majikisalive', 'CrazyFlowers5', 'MrChrisMacNeil', 'angeldemonTV', 'nanc_eeeee', 'mamabearpatriot', 'CodyElijah1', 'ThisStatistLife', 'GrantT68341073', 'Motomom128302', 'kim_saylor', 'weeyball', 'SharonBillen', 'AztecaToo2', 'JaniceW78256134', 'CovidVaxVictims', 'Gypsygirl761', 'AngelStar254', 'Yanky_Pollak', 'StoneColdET4', 'kenwils33873691', 'WinonaHutchins7', 'JasonStonks', 'Maarrriin', 'skimcoat21', '0luke_21', 'sford005', 'singletonnation', 'mmech1', 'cdars7', 'puckyou1977', 'atgall', 'jack_klassen', 'aggers81', 'CookieM97497042', 'ChickFrmOntario', 'GaryNea36220601', 'KeithUtleyjr', 'Amanda72137443', 'wyn_tracy', 'brenA_MOR', 'zxcvbnlkjhgf', 'pour_mea_coffee', 'allanasdad', 'ALPHONSE1924', 'LindaO888', 'Canadapatriot1', 'YourLastChanc16', 'THEMikeGrady', 'BearDanforth']</t>
+  </si>
+  <si>
+    <t>['StringReveals', 'IndianDiplomacy', 'MiaMalkova', 'ChinarcorpsIA', 'oyeaku', 'ShivAroor', 'swati_gs', 'KremlinRussia', 'OjasPatil16', 'TheEconomist', 'PBNS_India', 'Mike_Pence', 'UN', 'DipshikhaGhosh', 'Kashmir_Mirror', 'LestWeForgetIN', 'poojabishnoi36', 'SirPareshRawal', 'indemtel', 'WIONews', 'vickykaushal09', 'TeamBharat_', 'Kriteyaa', 'FonsStoelinga', 'KamalaHarris', 'VishavdeepJain', 'SayNoToSino', 'KSBSectt', 'TripathiiPankaj', 'W_Nuclear_News', 'drharshvardhan', 'ani_digital', 'RajatSharmaLive', 'CovidIndiaSeva', 'HardeepSPuri', 'HarshaNair27', 'PriyeshWaghmare', 'USMC', 'maha_tourism', 'Tesla', 'WHO', 'MeghUpdates', 'JmuKmrPolice', 'RShivshankar', 'Devashsish26', 'Riddhi52813356', 'omraut', 'DDNational', 'jairbolsonaro', 'POTUS', 'Rushike86870049', 'DrGodseRavi1', 'zomato', 'SriSri', 'VP', 'DrSEShinde', 'Francis11393229', 'grepmeded', 'gurjeetsingh_', 'YouTubeIndia', 'easterncomd', 'madhukishwar', 'HSajwanization', 'RahulGandhi', 'anky1912', 'hushpuppies_usa', 'peepoye_', 'IndiaCoastGuard', 'googlechrome', 'Charlie_Hebdo_', 'NIA_India', 'Tejasvi_Surya', 'narendramodi_in', 'IndiaHistorypic', 'ChhaganCBhujbal', 'pfizer', 'realSukhiChahal', 'AkashvaniAIR', 'gautami_garje', 'karanjohar', 'Its_Badshah', 'TanhajiFilm', 'DDNewsHindi', '_chinmayjoshi', 'TwitterMedia', 'sputnikvaccine', 'adarpoonawalla', 'rishireco', 'AUThackeray', 'TeamYouTube', 'FranceinIndia', 'rupamurthy1', 'COVIDNewsByMIB', 'DrGaneshCartoon', 'NarsinghVani', 'ProfKapilKumar', 'BorisJohnson', 'jtnladakh', 'TourismGoa', 'WhiteHouse45', 'imranirampal', 'AdityaRajKaul', 'iabhinavKhare', 'kakar_harsha', 'AshaRLobo', 'AbeShinzo', 'SwachhBharatGov', 'Dpiff_official', 'asadowaisi', 'nsitharaman', 'SecPompeo', 'EsperDoD', 'MOFA_Taiwan', 'elonmusk', 'NASA_Astronauts', 'DefenceDirect', 'FinMinIndia', 'ramnikmann', 'usairforce', 'CPMumbaiPolice', 'Shehzad_Ind', 'TheAaryanKartik', 'palkisu', 'MahaDGIPR', 'akshay_todankar', 'DrJitendraSingh', 'AmitV_Deshmukh', 'Suryakiran_IAF', 'RaigadPolice', 'Snehal2506', 'ZeeTalkies', 'RajkummarRao', 'thekiranbedi', 'SwetaSinghAT', 'iaeaorg', 'TheDilipKumar', 'jeffchavara2', 'ChingteLai', 'nstomar', 'PemaKhanduBJP', 'USNavy', 'MoNDefense', 'Twitter', 'StandWithUs', 'IndiaIsraelConf', 'DrSubhashMoS', 'CulturalTaiwan', 'deepigoyal', 'Phogat_Vinesh', 'vivekagnihotri', 'PriyamBhushan', 'ArvindKejriwal', 'ndmaindia', 'kiranshaw', 'WorldNuclear', 'nsui', 'ChinaUncensored', 'yadravkar', 'GulshanGroverGG', 'ashrafghani', 'Rachelle_Lobo', 'Google', 'IskconInc', 'BillGates', 'UrmilaMatondkar', 'IndianEmbassyUS', 'poojadhanda0007', 'ShantanuH19', 'VP45', 'RNTata2000', 'Ra_THORe', 'therealkapildev', 'westerncomd_IA', 'eoiberlin', 'sugawitter', 'MaliniP', 'dna', 'iPoonampandey', 'TMCheck_', 'shekharsuman7', 'meranamravi', 'EmmanuelMacron', 'PrVanve', 'ParvezUsmani4', 'thatgoangirl', 'TheLallantop', 'TaiwanFreedom89', 'DefenderOfInd', 'MHI_Group', 'SharadK7', 'MOHW_Taiwan', 'ashabhosle', 'sudhirchaudhary', 'AnkitHariya2', 'JoeBiden', 'IncomeTaxIndia', 'RoyalFamily', 'M_OfSarcasm', 'PresidentRuvi', 'anandmahindra', 'swaruphanchate', 'gargi661', 'ZeeNews', 'ShubhratDhopey', 'quickywitty2012', 'PranayChavhan91', 'Navimumpolice', 'PlanetMOTT', 'kayjay34350', 'NorbertElekes', 'Actor_Vivek', 'arshad_attar', 'PrakashJavdekar', 'Pvsindhu1', 'alam_mujaid', 'SpaceX', 'yogeshharijadh1', 'PeterDutton_MP', 'ARanganathan72', 'MeDeshmukh', 'TheShudra', 'Neurochauhan', 'DeptofDefense', 'MahaCyber1', 'rose_k01', 'aabhapaul', 'vikasopikaso', 'anilkumble1074', 'nitingokhale', 'usainbolt', 'TajinderBagga', 'realshooterdadi', 'Bikki21045499', 'USAndIndia', 'Amul_Coop', 'IamBhavaniDevi', 'HananyaNaftali', 'saurabhtop', 'StateDept', 'LostTemple7', 'Abhinav38667651', 'kaykaymenon02', 'KanganaTeam', 'JofraArcher', 'PIB_India', 'IndoPac_Info', 'undertaker', 'Kolas_Yotaka', 'sanilkumarsingh', 'Space_Station', 'FLOTUS45', 'KishoriPednekar', 'Dwalsepatil', 'dir_ed', 'DOpolitics_in', 'waglenikhil', 'jeydha007', 'SCVA1997', 'itsKajolD', 'BlockheadGenius', 'bombaytimes', 'ScottMorrisonMP', 'kheloindia']</t>
+  </si>
+  <si>
+    <t>['SamiraIbrahim4', 'SenatorTimScott', 'MarshaBlackburn', 'FoxNews', 'POTUS45', 'LawrenceSellin', 'SenTomCotton', 'DonaldJTrumpJr', 'milesyu10', 'xlmsnow', 'MosesTalking', 'bkLRyYCVlGWshCu', 'USEmbassyCairo', 'juanli324', 'SCVA1997', 'marcorubio', 'SenRickScott', 'tedcruz', 'LindseyGrahamSC', 'VP45', 'ScottPresler', 'SecondLady45', 'koshi2008', 'Sumerian0', 'newtgingrich', 'Byoussef', 'SecPompeo', 'TMCheck_', 'Expose4u', 'BoDiplo', 'SenBillCassidy', 'jenniferatntd', 'SenJohnKennedy', 'Amzh1od5B6irMN9', 'RudyGiuliani', 'SenTedCruz', 'JennyatNTD', 'LeaderMcConnell', 'dw_chinese', 'majuismail1122', 'dajiyuan', 'xwpajq_dayu', 'ttingxiao', 'KarenPence', 'laodeng89', 'xwpajq', 'FLOTUS45', 'VictoriaTC', 'HHShkMohd', 'IvankaTrump', 'xiaomuzi777', 'baotong1932', 'mikepompeo', 'Zhang58282771', 'abc9861238', 'weiyuksj1', 'Dinabdelrahman', 'h5LPyKL7TP6jjop', 'TuckerCarlson', 'jasonboshi', 'DrLiMengYAN1', 'robert_spalding', 'zhou8998', 'EvanLi2020', '4RxMbPD3YbeN1fS', 'letuspraytoGod', 'CaoChangqing', 'JenniferZeng15', 'TiffanyATrump', 'libert_zlin', 'HarshaNair27', 'Dc235284371Dc2', '2mmbPkM00IJwIUV', 'DanScavino', 'XIANSHENGYU1', 'JohnCornyn', 'thecjpearson', 'iYDoFHwV1UTcgd3', 'Freedomchina6', 'Guan_PhD', 'xiadandan10', 'Jkylebass', 'HamzaNamira', 'N8hW2qM4BoX2TbP', 'ThunV38030499', 'MJTVxchen15', 'USA_China_Talk', 'KwokMilaes', 'LaraLeaTrump']</t>
+  </si>
+  <si>
+    <t>['megynkelly', 'tedcruz', 'SenJohnKennedy', 'ChuckGrassley', 'larryelder', 'JackPosobiec', 'elonmusk', 'pnjaban', 'lawyer_like', 'JudgeJeanine', 'ByronYork', 'KenPaxtonTX', 'AnnCoulter', 'GunsAndAmmoMag', 'Mike_Pence', 'Therrco77', 'RepDougCollins', 'thereal_SnS', 'RepKatCammack', 'MaxNordau', 'TXAG', 'DanPatrick', 'WayneDupreeShow', 'marcorubio', 'TulsiGabbard', 'LindseyGrahamSC', 'markrobinsonNC', 'EganForCongress', 'RedState', 'seanspicer', 'EmeraldRobinson', 'glennbeck', 'HW_Floyd', 'paulgazelka', 'RepChrisStewart', 'SenatorHagerty', 'ggreenwald', 'amconmag', 'TimWalzLies', 'RepMikeJohnson', 'JessieJaneDuff', 'LaraLeaTrump', 'JaniceDean', 'KimStrassel', 'SenateGOP', 'SenTomCotton', 'kbarlowkstp', 'LevineJonathan', 'SaraCarterDC', 'RepThomasMassie', 'CortesSteve', 'DineshDSouza', 'LaVelleNeal', 'KatrinaPierson', 'Jim_Jordan', 'robert_spalding', 'DanCrenshawTX', 'StPaulSaints', 'TomBevanRCP', 'davereaboi', 'MinnesotaOSN', 'MariaBartiromo', 'mercedesschlapp', 'Gutfeldfox', 'EpochTimes', 'Razorsmack1', 'FoxNews', 'JohnRatcliffe', 'RyanGirdusky', 'CBS_Herridge', 'SpaceX', 'DonaldJTrumpJr', 'RubinReport', 'RepClayHiggins', 'T_S_P_O_O_K_Y', 'kimguilfoyle', 'SteveScalise', 'brithume', 'JustTheNews', 'GovRonDeSantis', 'JesseBWatters', 'SarahHuckabee', 'stoolpresidente', 'TPUSA', 'MarkMeadows', 'RepMarkGreen', 'LeeSmithDC', 'BillOReilly', 'RonColeman', 'mschlapp', 'LeaderMcConnell', 'TuckerCarlson', 'JonathanTurley', 'DanScavino', 'ScottPresler', 'MNUpNorthLakeG1', 'KevinKileyCA', 'Techno_Fog', 'RepDLesko', 'NASA', 'JesseKellyDC', 'MZHemingway', 'MatteaMerta', 'catturd2', 'GeorgePapa19', 'thauserkstp', 'MattBraynard', 'joelpollak', 'HeyTammyBruce', 'greggutfeld', 'SCVA1997', 'morganisawizard', 'Hold2LLC', 'MarshaBlackburn', 'gregkellyusa', 'NASA_Johnson', 'GOPChairwoman', 'mtgreenee', 'jsolomonReports', 'HarshaNair27', 'JasonMillerinDC', 'kerpen', 'RepMattGaetz', 'kylenabecker', 'covid_clarity', 'BillFOXLA', 'ilDonaldoTrumpo', 'RepVernonJones', 'replouiegohmert', 'HouseGOP', 'willchamberlain', 'RepGregSteube', 'CawthornforNC', 'GLFOP', 'BlazeTV', 'JudiciaryGOP', 'SenTedCruz', 'AdamSchefter', 'RobManess', 'kayleighmcenany', 'RCamposDuffy', 'RepKenBuck', 'AZGOP', 'HawleyMO', 'govkristinoem', 'jasoninthehouse', 'RepCarlos', 'TheLeoTerrell', 'julie_kelly2', 'PrisonPlanet', 'DiamondandSilk', 'NolteNC', 'mattgaetz', 'echofon', 'RepStefanik', 'PhillDKline', 'Zigmanfreud', 'RepLeeZeldin', 'RepMaryFranson', 'GOPLeader', 'prageru', 'AlexBerenson', 'kelliwardaz', 'MrAndyNgo', 'drsimonegold', 'barnes_law', 'ArizonaAudit', 'danawhite', 'RandPaul', 'JennaEllisEsq', 'michaeljknowles', 'FogCityMidge', 'townhallcom', 'nedryun', 'RepGosar', 'SteveHiltonx', 'yesnicksearcy', 'ProfMJCleveland', 'parscale', 'Cernovich', 'TeamHondaCares', 'mikepompeo', 'jbinnall', 'RepAndyBiggsAZ', 'Julio_Rosas11', 'CrimeWatchMpls', 'JordanSchachtel', 'Gundisalvus', 'GregAbbott_TX', 'BuckSexton', 'ScottAdamsSays', 'millanpatterson', 'JosephJFlynn1', 'ConceptualJames', 'CR', 'BurgessOwens', 'justin_hart', 'WorldAndScience', 'IngrahamAngle', 'seanhannity', 'JaySekulow', 'TimMurtaugh', 'KurtSchlichter', 'joerogan', 'AbbottCampaign', 'NASA_SLS', 'SenRickScott', '2AWisdom']</t>
+  </si>
+  <si>
+    <t>['osuchrista', 'wilderfortruth', 'TiffMarie39', 'thebigwave2002', 'CarlaAllegro', 'JBillLevy', 'manoukliar', 'EscanorThe2nd', 'JoannaLuvsGod', '4themaster', 'thebeerninja', 'pockee', 'TheGeneral_0', 'Bubblebathgirl', 'AngusY100', 'Patriot1776John', 'JohnLukeNYC', 'woolfbain', 'JOELPURGE4', 'Satan__theDevil', 'HarshaNair27', 'G_MillsieVRadio', 'focustargate', 'Scatz14', 'JeffandJax1964', 'BillTheDrummer1', 'truthtemptress', 'OddreyMonkey', 'JorgeF2021', 'tnmuda', 'june9042', 'JamesPh71820226', 'SWFLPatriot', 'PirrohasFans', 'Newday50', 'Peter44615171', '1111Brookie', 'jeffreysadezwi1', 'Re78A', 'TeamHondaCares', 'JesseDWWolfe1', 'MAGAGIRLALWAYS', 'italianostyle2', 'DustnDreams', 'Mikefication', 'drosty521', 'ChattyJoe2', 'valwalk45185936', 'cruelisusual', 'DreamerFox17', 'BillWquinn136', 'Dretchy', 'FroschZeit', 'uniusa1', 'vermont4u', 'auroraborie', 'coffeegal11', 'luisalarosa', 'coffee_anytime', 'qorfus112', 'Kalmarjo', '_gianis1', 'MattWalshBlog', 'A_BadBunny', 'Bigt8sty1', 'bradj04', 'Iroserebel', 'ThomasArdoline', 'C1Censored', 'MFMarket1', 'MAJMO50', 'cheri_rotruck', 'wildangel1968', 'SCVA1997', 'Wayne10500', 'AlaskanPatriot_', 'notadmblnd', 'teaseandseize', 'RebaGodsChild', 'Franjota', 'Fran09637399', 'OriginaITank', 'Arkypatriot', 'harval', 'TheNiteWatcher', 'DawnEMcKenzie', 'LUDIRTY3', 'KishorTrivedi7', 'STARR1210', 'gramyc44', 'GeraghtyCarla', 'MolonlabeVet', 'CovfefeFeed', 'IMSuzyQuzy', 'Cyndielooohoo', 'lividme', 'larryelder', 'nobbieng', 'Printspixnremix', 'mcameron5675', 'PiousTheo', 'AussieLad18', 'DavidBE43756163', 'MAGAChapelHill', 'ThomasP3120', 'Oscar65822277', 'Susanartpainter', 'coastalsweethe1', 'americafirstmg', 'JanetFr11616397', 'TomBurchett', 'MischievousLiz', 'ShellbackProud', 'svp_39', 'SlyRambo45', 'eaglewensheflys', 'CALgreenlaw', 'GeorgeSteven2', 'cmas1', 'mattypark2', 'LoveItOrLeave12', 'Johnheretohelp', 'NorrisTerrig64', 'JoshPatriot1776', 'Emily_Taylor728', 'debbiec35437378', 'Rose23149113', 'ZonaDBNY', 'Postofficetrace', 'motorcop23', 'SaveMtg', 'RayBurtonSAS', 'PatriotsUnite12', 'CarolinaIsRed', 'BeyondContesta1', 'CC2USA', 'lorileeb129', 'thebradfordfile', 'fire9696', 'vt_opinion', 'gregpeartpolish', 'J0hnnY0fficial', 'FoxtrotOscar118', 'mrspeckles2', 'KindaKatty1', 'Nei8G', 'txark76', 'ShimonPiamenta', 'ganseykid', 'Bartholomew1981', 'LPFDrescue3', 'RL4524', 'just1vicki', 'ncar999', 'RedNhappy4', 'ayn_rose', 'RdrHrly', 'NinyaBeezwax', 'TCReporter', 'dcwheeler0117', 'flowerPotzzz', 'GreySlitaz', 'LorraineMcFlie', 'jokersbythedzn', 'snowball1926', 'CivicViewPoint', 'BethKan47749675', 'QT4Trump', 'ronkland', 'phat_walt', 'elperfect', 'BryanCF', 'theblaze', 'JDVance1', 'Friia9', 'process1service', 'Shanna37flint', 'Sean_WontDie', 'ancientsoul7', 'Winston1GSP', 'JohnBertolami', 'AdrianNormanDC', 'sebrzoska1', 'Larry757N', 'ConnorInsurance', 'ZeroDarkKitty', 'TeriColMo', 'GinaMRogers', 're4joe', 'BigKenize', 'OneFreeAmerica', 'HarryFischer15', 'dean_vannoy2', 'KimberlyES19', 'Dmoney53', 'thefattestbob', 'so_many_lives', 'F_rida_h', '1206_nj', 'Jbclark13', 'CarolinFlorida', 'GoergeSteven2', 'VaPatriot100', 'chrissynonumber', 'Mike_Skeen', 'Lovelife2801', 'aloverofblue', 'katkner', 'mojojoeg', 'customsurfart', 'GeorgeB95619532', 'Badger12Bucky', 'HontzDavid', 'amandalaurenm', 'beek_corrie', 'Motherearth90', 'BLUEgrasscrazy1', 'Ajc0224', 'Stumppy11', 'hectorhorcastle', 'poetWOAgun', 'sundeviltrouble', 'SeanMMorrison']</t>
+  </si>
+  <si>
+    <t>['Canesfan1966', 'rich_s33ker2020', 'MrBeast', 'AmberBrouwer2', 'IvGNooneleft', 'MissMichelleRae', 'ProfKlausSchwab', 'Ilovefr99155576', 'RealAmVoice', 'ralfdkkr', 'CustomName4', 'lovehollandia', 'KenPaxtonTX', 'ilDonaldoTrumpo', 'BasedAut', 'BCscifience', 'life2squared', 'cathyxOR', 'ErnaSchoonderbe', 'twimmercom', 'mtgreenee', 'JornLuka', 'pdfmakerapp', 'DefenseAssange', 'BusyDrT', 'zegmaar_LydeLa', 'Chapiro', 'ukmfa1', 'VisitEstepona', 'Von_HZ', 'annietenw', 'Rubymoon1313', 'ithanksatoshi', 'sputnikvaccine', 'WNiemegeers', 'grtdevries', 'RandyRRQuaid', 'MaryVought', 'mirandaxoxo44', 'ciaudias', 'berstijn', 'business', 'hiawatha33', 'God83381909', 'ThoweMerle', 'IvankaTrump', 'laughingcat2016', 'OrwellRight', 'Suzanne48883804', 'Sonata52718168', 'ShelbyTalcott', 'HarshaNair27', 'DEAcampaign', 'Sandra54319411', 'Duizendpoot5', 'TomCruise', 'misseva88', 'NoEU13', 'JayWacked', 'nigella_i5e', 'ezralevant', 'AmorFati2021', 'NUnl', 'ZJasko', 'oldafojtik', 'OmroepWNL', 'June_Dune_', 'JennaEllisEsq', 'ihoepelm', 'the_Arkivist', 'nickolasrossi', 'luquion', 'SchuitemakerH', 'luna_nueva96', 'RealBrysonGray', 'BeauRTL', 'amrita418', 'sayno08595988', 'Starryder10', 'AbGietelink', 'TalkMullins', 'RexHenryVIII', 'goodiesuze', 'WildGeraas', 'Cukullen', 'jop_n', 'HRehwaldt', 'EmbEUAenBolivia', 'haruno07', 'elisabeth_furst', 'JaneSimpson_', 'mislukt12345', 'BeezlyKre', 'jaapjandevries', 'SpyMacho', 'Native3rd', 'GrahamAllen_1', 'LillianJanse', 'swsjoerdsma', 'ewaldeng', 'sweetdeesez', 'CAnneHale1', 'TXAG', 'meisjeSchalk', 'CGAdamo', 'mysbbby', 'Thasista3', 'patti_can', 'PressClubDC', 'unklekeith', 'RobPetrosian', 'ThomasBosman95', 'neuralink', 'GreatGameIndia', 'Burgerfront1', 'WikireleaseJ', 'LynnFynn3', 'OregonNMAndrew', 'SKyriakidesEU', 'GoatRebel', 'Mensenrechten2', 'MarkAlanMarks1', 'libertyhq', 'Heidella', 'parit_eu', 'jndkgrf', 'spiritinflower', 'richimedhurst', 'Frankydoo7', 'sigridstuut', 'Lynx00718861', 'RedPilledRogue', 'Maui_Speaks', 'CCatootje', 'Queenoftheunse1', 'SCVA1997', 'Gaia_Universe', 'skaut', 'RepMTG', 'CarryKnoops', 'StefanieHamski', 'MedicijnNL', 'mvankerkhove', 'geenstijl', 'HealthCoachDD', 'hubbard2015', 'jerilthompson', 'Joanna_Harter', 'lavoskuilen', 'Hennie94049187', 'Doctah_T', 'Vincent__Fusca', 'ADOotjuh', 'Wim04789402', 'RSBNetwork', 'bexxmodd', 'PICUM_post', 'Wilderspoezen', 'hg_till_vp', 'SamHvNL', 'EgregoreMusic', 'NAWorg', 'hirst_west', 'CherokeeNation', 'Linketoni', 'RechtsPlatform', 'Covid19Critical', 'BettyPadgett4', 'GGDAmsterdam', 'EinAsia', 'smit_anja', 'Mellisa020', 'PaulStart4', 'Demian402', 'JoeSeales', 'mikhail86439176', 'dhookstead', 'LauraCarrese', 'vanDerBlije', 'Keciatrvlr', 'CMSLBBALL', 'Ollie2016Wall1', 'yolandaelizabet', 'pastormarkburns', 'iproblemtweets', 'Brianne14437909', 'hillclime', 'ABCollectief', 'faberj4', 'raemonsluiter', 'xxmiekewxx', 'nitsmusic', 'normaal_gewoon', 'Dany94sh', 'thebradfordfile', 'MathildeReali', 'PierreKory', 'gr_kova', 'BryanRoyAjax', 'emovere', 'Abrahamsson_en', 'TheHorizonX', 'door1961', 'Stephen16498892', 'k_colonialism', 'Gerbrak', 'LisaRWhittle', 'DickBenschop', 'katje1961', 'OmroepON', 'MaggieS66638762', 'RRoy9944', 'risalusofia', 'TabeStorm', 'GWBLibrary', 'Lampladies', 'RhondaDeeConn1', 'bpoc2020', 'susan_welch7', 'ASewcialist', 'DianaPrinceTL', 'Renaatjez79', 'Third3y3Club', 'orcatra', 'CaliVaxChoice', 'Kathy_362', 'cornelisse63', 'MichaelvdGalien', 'seachange_au', 'stephenmarley', 'karin_metz', 'WKortepeter', 'PGoldschmeding', 'sachastone', 'peterjhasson', 'ZZPLoosduinen', 'bijboot', 'Jancee71666802', 'UPPDKV', 'Daoyu15', 'PatriciaGaffne5', 'sweepnwin', 'JvdKExc', 'sevsab73', 'Albion_Rover', 'nicolehibb', 'renaissance4109', 'DDStandaard', 'JoachimLenin', 'loiejean', 'T4Recovery', 'Huskypalooza', 'SelaStarr', 'BreadandtheMan', 'Janlammerts', 'Talk2Myra', 'mahinatiger', 'ThompsonPascale', 'MoniqueBader1', 'altcensored', 'KabinetKwebbel', 'cheryl_lyn69', 'lexikon123', 'IreneSc10551404', 'sarachessa1', 'HBloeming', 'thematrixf_', 'RobertS33563818', 'diabolicalsauce', 'Rutger_zelf', 'sil_ver_sur_fer', 'FionaZwart', 'Romijnhg', 'GarlandNixon', 'MELANIATRUMP', 'WilmaPetersen19', 'xerloquis', 'Bob36783646', 'Frankbakker7', 'marcvanvoorst', 'golfing92']</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1085,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1096,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1107,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1118,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1129,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1140,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1151,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1162,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1173,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1184,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1195,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1206,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1217,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1228,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1239,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1250,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1261,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1272,7 +1317,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1283,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1294,7 +1339,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1305,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1316,7 +1361,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1327,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1338,7 +1383,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1349,7 +1394,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1360,7 +1405,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1371,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1382,7 +1427,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1393,7 +1438,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1404,7 +1449,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1415,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1426,7 +1471,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1437,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1448,7 +1493,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1459,7 +1504,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1470,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1481,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1492,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1503,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1514,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1525,7 +1570,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1536,7 +1581,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1547,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1558,7 +1603,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1569,7 +1614,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1580,7 +1625,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1591,7 +1636,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1602,7 +1647,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1613,7 +1658,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1624,7 +1669,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1635,7 +1680,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1646,7 +1691,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1657,7 +1702,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1668,7 +1713,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1679,7 +1724,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1690,7 +1735,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1701,7 +1746,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1712,7 +1757,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1723,7 +1768,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1734,7 +1779,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1745,7 +1790,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1756,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1767,7 +1812,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1778,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1789,7 +1834,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1800,7 +1845,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1811,7 +1856,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1822,7 +1867,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1833,7 +1878,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1844,7 +1889,7 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1855,7 +1900,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1866,7 +1911,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1877,7 +1922,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1888,7 +1933,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1899,7 +1944,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1910,7 +1955,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1921,7 +1966,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1932,7 +1977,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1943,7 +1988,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1954,7 +1999,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1965,7 +2010,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1976,7 +2021,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1987,7 +2032,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1998,7 +2043,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2009,7 +2054,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2020,7 +2065,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2031,7 +2076,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2042,7 +2087,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2053,7 +2098,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2064,7 +2109,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2075,7 +2120,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2086,7 +2131,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2097,7 +2142,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2108,7 +2153,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2119,7 +2164,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2130,7 +2175,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2141,7 +2186,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2152,7 +2197,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2163,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2174,7 +2219,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2185,7 +2230,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2196,7 +2241,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2207,7 +2252,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2218,7 +2263,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2229,7 +2274,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2240,7 +2285,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2251,7 +2296,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2262,7 +2307,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2273,7 +2318,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2284,7 +2329,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2295,7 +2340,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2306,7 +2351,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2317,7 +2362,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2328,7 +2373,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2339,7 +2384,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2350,7 +2395,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2361,7 +2406,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2372,7 +2417,95 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
         <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
